--- a/tests/data/indicator_test_output_MINI_2405313_mod.xlsx
+++ b/tests/data/indicator_test_output_MINI_2405313_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmanko/code/who_l3_smart_tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F0B05-74BD-5C41-AA57-60CE53AAC9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42102E53-C145-C147-9375-50C38C37F121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
